--- a/typing_test.xlsx
+++ b/typing_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshibata11299\Documents\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED7F0E2-E75E-43A7-B0E2-8412F7FCFD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFE2087-CE9B-4DCB-ADBC-74CCCE06C1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{96CF07DF-08EC-4B58-ABA9-035DB56C83CA}"/>
   </bookViews>
@@ -2277,19 +2277,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>営業分門徒の調整を行う</t>
-    <rPh sb="0" eb="5">
-      <t>エイギョウブンモント</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>月次目標を設定した</t>
     <rPh sb="0" eb="4">
       <t>ゲツジモクヒョウ</t>
@@ -4970,6 +4957,22 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>フカボリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>営業部門の調整を行う</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5365,9 +5368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AD81C9-7CD4-475C-A1A7-EEA363196084}">
   <dimension ref="A1:A400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -6278,1097 +6279,1097 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
